--- a/LWCF/Data/StateGrantData/MD_LWCFGrants1965-2011.xlsx
+++ b/LWCF/Data/StateGrantData/MD_LWCFGrants1965-2011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherkusmierz/GitHub/DataScienceforConservation/LWCF/Data/StateGrantData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F48948B-CC12-8C47-BAC8-BEB95A8EB7DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6567BE51-0639-5F44-87DF-D676DE0B60CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{B6F33490-F3E6-7A4C-BEE8-2FF3B7EA137C}"/>
+    <workbookView xWindow="17060" yWindow="1040" windowWidth="16280" windowHeight="16940" xr2:uid="{B6F33490-F3E6-7A4C-BEE8-2FF3B7EA137C}"/>
   </bookViews>
   <sheets>
     <sheet name="MD" sheetId="1" r:id="rId1"/>
@@ -1347,15 +1347,9 @@
     <t>LOUISE F. COSCA REGIONAL PARK</t>
   </si>
   <si>
-    <t>PRINCE GEORGES</t>
-  </si>
-  <si>
     <t>TUCKAHOE STATE PARK</t>
   </si>
   <si>
-    <t>QUEEN ANNES</t>
-  </si>
-  <si>
     <t>MATAPEAKE HARBOR OF REFUGE</t>
   </si>
   <si>
@@ -1479,9 +1473,6 @@
     <t>ST. MARY'S COUNTY</t>
   </si>
   <si>
-    <t>SAINT MARYS</t>
-  </si>
-  <si>
     <t>GREAT MILLS SCHOOL PARK CENTER</t>
   </si>
   <si>
@@ -2335,6 +2326,15 @@
   </si>
   <si>
     <t>Newtowne Neck State Park</t>
+  </si>
+  <si>
+    <t>QUEEN ANNE'S</t>
+  </si>
+  <si>
+    <t>SAINT MARY'S</t>
+  </si>
+  <si>
+    <t>PRINCE GEORGE'S</t>
   </si>
 </sst>
 </file>
@@ -4093,7 +4093,7 @@
         <v>436</v>
       </c>
       <c r="D48" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E48" t="s">
         <v>367</v>
@@ -4116,13 +4116,13 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C49" t="s">
         <v>365</v>
       </c>
       <c r="D49" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E49" t="s">
         <v>367</v>
@@ -4145,13 +4145,13 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C50" t="s">
         <v>401</v>
       </c>
       <c r="D50" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E50" t="s">
         <v>367</v>
@@ -4174,13 +4174,13 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C51" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D51" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E51" t="s">
         <v>367</v>
@@ -4203,13 +4203,13 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C52" t="s">
         <v>365</v>
       </c>
       <c r="D52" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E52" t="s">
         <v>367</v>
@@ -4232,7 +4232,7 @@
         <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C53" t="s">
         <v>332</v>
@@ -4261,10 +4261,10 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C54" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D54" t="s">
         <v>333</v>
@@ -4290,13 +4290,13 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
+        <v>449</v>
+      </c>
+      <c r="C55" t="s">
+        <v>450</v>
+      </c>
+      <c r="D55" t="s">
         <v>451</v>
-      </c>
-      <c r="C55" t="s">
-        <v>452</v>
-      </c>
-      <c r="D55" t="s">
-        <v>453</v>
       </c>
       <c r="E55" t="s">
         <v>367</v>
@@ -4322,10 +4322,10 @@
         <v>351</v>
       </c>
       <c r="C56" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D56" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E56" t="s">
         <v>367</v>
@@ -4348,13 +4348,13 @@
         <v>278</v>
       </c>
       <c r="B57" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C57" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D57" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E57" t="s">
         <v>367</v>
@@ -4380,7 +4380,7 @@
         <v>357</v>
       </c>
       <c r="C58" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D58" t="s">
         <v>391</v>
@@ -4406,7 +4406,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -4435,7 +4435,7 @@
         <v>337</v>
       </c>
       <c r="B60" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C60" t="s">
         <v>399</v>
@@ -4464,7 +4464,7 @@
         <v>287</v>
       </c>
       <c r="B61" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C61" t="s">
         <v>399</v>
@@ -4493,7 +4493,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C62" t="s">
         <v>370</v>
@@ -4522,7 +4522,7 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C63" t="s">
         <v>416</v>
@@ -4551,7 +4551,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C64" t="s">
         <v>430</v>
@@ -4580,7 +4580,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C65" t="s">
         <v>427</v>
@@ -4609,7 +4609,7 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C66" t="s">
         <v>352</v>
@@ -4638,13 +4638,13 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
+        <v>462</v>
+      </c>
+      <c r="C67" t="s">
+        <v>463</v>
+      </c>
+      <c r="D67" t="s">
         <v>464</v>
-      </c>
-      <c r="C67" t="s">
-        <v>465</v>
-      </c>
-      <c r="D67" t="s">
-        <v>466</v>
       </c>
       <c r="E67" t="s">
         <v>367</v>
@@ -4667,7 +4667,7 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C68" t="s">
         <v>365</v>
@@ -4696,10 +4696,10 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C69" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D69" t="s">
         <v>382</v>
@@ -4725,10 +4725,10 @@
         <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C70" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D70" t="s">
         <v>382</v>
@@ -4754,10 +4754,10 @@
         <v>281</v>
       </c>
       <c r="B71" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C71" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D71" t="s">
         <v>382</v>
@@ -4783,7 +4783,7 @@
         <v>345</v>
       </c>
       <c r="B72" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C72" t="s">
         <v>355</v>
@@ -4812,10 +4812,10 @@
         <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C73" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D73" t="s">
         <v>279</v>
@@ -4841,7 +4841,7 @@
         <v>276</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C74" t="s">
         <v>436</v>
@@ -4870,7 +4870,7 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C75" t="s">
         <v>334</v>
@@ -4899,13 +4899,13 @@
         <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C76" t="s">
         <v>436</v>
       </c>
       <c r="D76" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E76" t="s">
         <v>367</v>
@@ -4928,13 +4928,13 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C77" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D77" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E77" t="s">
         <v>367</v>
@@ -4957,13 +4957,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C78" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D78" t="s">
-        <v>484</v>
+        <v>768</v>
       </c>
       <c r="E78" t="s">
         <v>367</v>
@@ -4986,13 +4986,13 @@
         <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C79" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D79" t="s">
-        <v>484</v>
+        <v>768</v>
       </c>
       <c r="E79" t="s">
         <v>367</v>
@@ -5015,13 +5015,13 @@
         <v>275</v>
       </c>
       <c r="B80" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C80" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D80" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E80" t="s">
         <v>367</v>
@@ -5044,7 +5044,7 @@
         <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C81" t="s">
         <v>332</v>
@@ -5073,7 +5073,7 @@
         <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C82" t="s">
         <v>332</v>
@@ -5102,13 +5102,13 @@
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C83" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D83" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E83" t="s">
         <v>367</v>
@@ -5131,13 +5131,13 @@
         <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C84" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D84" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E84" t="s">
         <v>367</v>
@@ -5160,10 +5160,10 @@
         <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C85" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D85" t="s">
         <v>393</v>
@@ -5189,7 +5189,7 @@
         <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C86" t="s">
         <v>399</v>
@@ -5218,7 +5218,7 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C87" t="s">
         <v>399</v>
@@ -5247,7 +5247,7 @@
         <v>285</v>
       </c>
       <c r="B88" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C88" t="s">
         <v>399</v>
@@ -5276,10 +5276,10 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C89" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D89" t="s">
         <v>366</v>
@@ -5305,7 +5305,7 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C90" t="s">
         <v>399</v>
@@ -5334,7 +5334,7 @@
         <v>283</v>
       </c>
       <c r="B91" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C91" t="s">
         <v>410</v>
@@ -5363,7 +5363,7 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C92" t="s">
         <v>370</v>
@@ -5392,7 +5392,7 @@
         <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C93" t="s">
         <v>416</v>
@@ -5421,7 +5421,7 @@
         <v>347</v>
       </c>
       <c r="B94" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C94" t="s">
         <v>359</v>
@@ -5450,7 +5450,7 @@
         <v>289</v>
       </c>
       <c r="B95" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C95" t="s">
         <v>359</v>
@@ -5479,7 +5479,7 @@
         <v>84</v>
       </c>
       <c r="B96" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C96" t="s">
         <v>427</v>
@@ -5508,7 +5508,7 @@
         <v>282</v>
       </c>
       <c r="B97" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C97" t="s">
         <v>430</v>
@@ -5537,7 +5537,7 @@
         <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C98" t="s">
         <v>361</v>
@@ -5566,7 +5566,7 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C99" t="s">
         <v>361</v>
@@ -5595,7 +5595,7 @@
         <v>284</v>
       </c>
       <c r="B100" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C100" t="s">
         <v>361</v>
@@ -5624,7 +5624,7 @@
         <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C101" t="s">
         <v>361</v>
@@ -5653,7 +5653,7 @@
         <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C102" t="s">
         <v>361</v>
@@ -5682,7 +5682,7 @@
         <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C103" t="s">
         <v>396</v>
@@ -5717,7 +5717,7 @@
         <v>436</v>
       </c>
       <c r="D104" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E104" t="s">
         <v>367</v>
@@ -5740,13 +5740,13 @@
         <v>91</v>
       </c>
       <c r="B105" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C105" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D105" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E105" t="s">
         <v>367</v>
@@ -5769,13 +5769,13 @@
         <v>86</v>
       </c>
       <c r="B106" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C106" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D106" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E106" t="s">
         <v>367</v>
@@ -5798,7 +5798,7 @@
         <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C107" t="s">
         <v>365</v>
@@ -5827,7 +5827,7 @@
         <v>98</v>
       </c>
       <c r="B108" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C108" t="s">
         <v>332</v>
@@ -5856,13 +5856,13 @@
         <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C109" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D109" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E109" t="s">
         <v>367</v>
@@ -5885,13 +5885,13 @@
         <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C110" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D110" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E110" t="s">
         <v>367</v>
@@ -5914,10 +5914,10 @@
         <v>290</v>
       </c>
       <c r="B111" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C111" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D111" t="s">
         <v>393</v>
@@ -5943,7 +5943,7 @@
         <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C112" t="s">
         <v>399</v>
@@ -5972,7 +5972,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C113" t="s">
         <v>399</v>
@@ -6001,10 +6001,10 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C114" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D114" t="s">
         <v>371</v>
@@ -6030,7 +6030,7 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C115" t="s">
         <v>370</v>
@@ -6059,7 +6059,7 @@
         <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C116" t="s">
         <v>359</v>
@@ -6088,7 +6088,7 @@
         <v>310</v>
       </c>
       <c r="B117" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C117" t="s">
         <v>359</v>
@@ -6117,10 +6117,10 @@
         <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C118" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D118" t="s">
         <v>350</v>
@@ -6146,7 +6146,7 @@
         <v>108</v>
       </c>
       <c r="B119" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C119" t="s">
         <v>360</v>
@@ -6175,7 +6175,7 @@
         <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C120" t="s">
         <v>427</v>
@@ -6204,7 +6204,7 @@
         <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C121" t="s">
         <v>381</v>
@@ -6233,10 +6233,10 @@
         <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C122" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D122" t="s">
         <v>382</v>
@@ -6262,7 +6262,7 @@
         <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C123" t="s">
         <v>361</v>
@@ -6291,7 +6291,7 @@
         <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
@@ -6320,7 +6320,7 @@
         <v>106</v>
       </c>
       <c r="B125" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C125" t="s">
         <v>436</v>
@@ -6349,7 +6349,7 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C126" t="s">
         <v>436</v>
@@ -6378,13 +6378,13 @@
         <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C127" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D127" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E127" t="s">
         <v>367</v>
@@ -6407,13 +6407,13 @@
         <v>295</v>
       </c>
       <c r="B128" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C128" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D128" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E128" t="s">
         <v>367</v>
@@ -6436,13 +6436,13 @@
         <v>299</v>
       </c>
       <c r="B129" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C129" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D129" t="s">
-        <v>484</v>
+        <v>768</v>
       </c>
       <c r="E129" t="s">
         <v>367</v>
@@ -6465,13 +6465,13 @@
         <v>114</v>
       </c>
       <c r="B130" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C130" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D130" t="s">
-        <v>484</v>
+        <v>768</v>
       </c>
       <c r="E130" t="s">
         <v>367</v>
@@ -6494,13 +6494,13 @@
         <v>96</v>
       </c>
       <c r="B131" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C131" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D131" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E131" t="s">
         <v>367</v>
@@ -6523,13 +6523,13 @@
         <v>99</v>
       </c>
       <c r="B132" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C132" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D132" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E132" t="s">
         <v>367</v>
@@ -6552,13 +6552,13 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C133" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D133" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E133" t="s">
         <v>367</v>
@@ -6581,13 +6581,13 @@
         <v>107</v>
       </c>
       <c r="B134" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C134" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D134" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E134" t="s">
         <v>367</v>
@@ -6610,10 +6610,10 @@
         <v>100</v>
       </c>
       <c r="B135" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C135" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D135" t="s">
         <v>333</v>
@@ -6639,10 +6639,10 @@
         <v>101</v>
       </c>
       <c r="B136" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C136" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D136" t="s">
         <v>333</v>
@@ -6668,10 +6668,10 @@
         <v>103</v>
       </c>
       <c r="B137" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C137" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D137" t="s">
         <v>333</v>
@@ -6697,7 +6697,7 @@
         <v>97</v>
       </c>
       <c r="B138" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C138" t="s">
         <v>332</v>
@@ -6726,7 +6726,7 @@
         <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C139" t="s">
         <v>332</v>
@@ -6755,7 +6755,7 @@
         <v>294</v>
       </c>
       <c r="B140" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C140" t="s">
         <v>362</v>
@@ -6784,7 +6784,7 @@
         <v>119</v>
       </c>
       <c r="B141" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C141" t="s">
         <v>356</v>
@@ -6813,13 +6813,13 @@
         <v>128</v>
       </c>
       <c r="B142" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C142" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D142" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E142" t="s">
         <v>367</v>
@@ -6842,10 +6842,10 @@
         <v>105</v>
       </c>
       <c r="B143" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C143" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D143" t="s">
         <v>391</v>
@@ -6871,10 +6871,10 @@
         <v>293</v>
       </c>
       <c r="B144" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C144" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D144" t="s">
         <v>393</v>
@@ -6900,10 +6900,10 @@
         <v>130</v>
       </c>
       <c r="B145" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C145" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D145" t="s">
         <v>393</v>
@@ -6929,10 +6929,10 @@
         <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C146" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D146" t="s">
         <v>393</v>
@@ -6958,7 +6958,7 @@
         <v>138</v>
       </c>
       <c r="B147" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C147" t="s">
         <v>399</v>
@@ -6987,7 +6987,7 @@
         <v>298</v>
       </c>
       <c r="B148" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C148" t="s">
         <v>399</v>
@@ -7016,7 +7016,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C149" t="s">
         <v>399</v>
@@ -7045,7 +7045,7 @@
         <v>309</v>
       </c>
       <c r="B150" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C150" t="s">
         <v>370</v>
@@ -7074,7 +7074,7 @@
         <v>300</v>
       </c>
       <c r="B151" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C151" t="s">
         <v>370</v>
@@ -7103,10 +7103,10 @@
         <v>306</v>
       </c>
       <c r="B152" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C152" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D152" t="s">
         <v>371</v>
@@ -7132,7 +7132,7 @@
         <v>127</v>
       </c>
       <c r="B153" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C153" t="s">
         <v>356</v>
@@ -7161,7 +7161,7 @@
         <v>307</v>
       </c>
       <c r="B154" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C154" t="s">
         <v>370</v>
@@ -7190,7 +7190,7 @@
         <v>305</v>
       </c>
       <c r="B155" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C155" t="s">
         <v>370</v>
@@ -7219,10 +7219,10 @@
         <v>125</v>
       </c>
       <c r="B156" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C156" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D156" t="s">
         <v>417</v>
@@ -7248,7 +7248,7 @@
         <v>311</v>
       </c>
       <c r="B157" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C157" t="s">
         <v>430</v>
@@ -7277,7 +7277,7 @@
         <v>292</v>
       </c>
       <c r="B158" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C158" t="s">
         <v>365</v>
@@ -7306,10 +7306,10 @@
         <v>135</v>
       </c>
       <c r="B159" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C159" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D159" t="s">
         <v>428</v>
@@ -7335,7 +7335,7 @@
         <v>137</v>
       </c>
       <c r="B160" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C160" t="s">
         <v>430</v>
@@ -7364,10 +7364,10 @@
         <v>303</v>
       </c>
       <c r="B161" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C161" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D161" t="s">
         <v>382</v>
@@ -7393,10 +7393,10 @@
         <v>304</v>
       </c>
       <c r="B162" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C162" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D162" t="s">
         <v>382</v>
@@ -7422,7 +7422,7 @@
         <v>291</v>
       </c>
       <c r="B163" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C163" t="s">
         <v>381</v>
@@ -7451,10 +7451,10 @@
         <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C164" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D164" t="s">
         <v>382</v>
@@ -7480,10 +7480,10 @@
         <v>308</v>
       </c>
       <c r="B165" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C165" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D165" t="s">
         <v>349</v>
@@ -7509,10 +7509,10 @@
         <v>296</v>
       </c>
       <c r="B166" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C166" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D166" t="s">
         <v>279</v>
@@ -7538,13 +7538,13 @@
         <v>302</v>
       </c>
       <c r="B167" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C167" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D167" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E167" t="s">
         <v>367</v>
@@ -7567,13 +7567,13 @@
         <v>132</v>
       </c>
       <c r="B168" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C168" t="s">
         <v>436</v>
       </c>
       <c r="D168" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E168" t="s">
         <v>367</v>
@@ -7596,13 +7596,13 @@
         <v>124</v>
       </c>
       <c r="B169" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C169" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D169" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E169" t="s">
         <v>367</v>
@@ -7625,10 +7625,10 @@
         <v>123</v>
       </c>
       <c r="B170" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C170" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D170" t="s">
         <v>358</v>
@@ -7654,10 +7654,10 @@
         <v>301</v>
       </c>
       <c r="B171" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C171" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D171" t="s">
         <v>358</v>
@@ -7683,10 +7683,10 @@
         <v>126</v>
       </c>
       <c r="B172" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C172" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D172" t="s">
         <v>333</v>
@@ -7712,13 +7712,13 @@
         <v>121</v>
       </c>
       <c r="B173" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C173" t="s">
         <v>354</v>
       </c>
       <c r="D173" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E173" t="s">
         <v>367</v>
@@ -7741,13 +7741,13 @@
         <v>129</v>
       </c>
       <c r="B174" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C174" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D174" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E174" t="s">
         <v>367</v>
@@ -7770,13 +7770,13 @@
         <v>133</v>
       </c>
       <c r="B175" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C175" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D175" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E175" t="s">
         <v>367</v>
@@ -7799,13 +7799,13 @@
         <v>139</v>
       </c>
       <c r="B176" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C176" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D176" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E176" t="s">
         <v>367</v>
@@ -7828,10 +7828,10 @@
         <v>155</v>
       </c>
       <c r="B177" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C177" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D177" t="s">
         <v>393</v>
@@ -7857,10 +7857,10 @@
         <v>156</v>
       </c>
       <c r="B178" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C178" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D178" t="s">
         <v>393</v>
@@ -7886,10 +7886,10 @@
         <v>338</v>
       </c>
       <c r="B179" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C179" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D179" t="s">
         <v>366</v>
@@ -7915,10 +7915,10 @@
         <v>313</v>
       </c>
       <c r="B180" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C180" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D180" t="s">
         <v>366</v>
@@ -7944,10 +7944,10 @@
         <v>314</v>
       </c>
       <c r="B181" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C181" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D181" t="s">
         <v>366</v>
@@ -7973,10 +7973,10 @@
         <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C182" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D182" t="s">
         <v>366</v>
@@ -8002,10 +8002,10 @@
         <v>142</v>
       </c>
       <c r="B183" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C183" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D183" t="s">
         <v>411</v>
@@ -8031,10 +8031,10 @@
         <v>148</v>
       </c>
       <c r="B184" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C184" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D184" t="s">
         <v>411</v>
@@ -8060,10 +8060,10 @@
         <v>143</v>
       </c>
       <c r="B185" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C185" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D185" t="s">
         <v>371</v>
@@ -8089,10 +8089,10 @@
         <v>140</v>
       </c>
       <c r="B186" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C186" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D186" t="s">
         <v>371</v>
@@ -8118,10 +8118,10 @@
         <v>153</v>
       </c>
       <c r="B187" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C187" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D187" t="s">
         <v>371</v>
@@ -8147,10 +8147,10 @@
         <v>146</v>
       </c>
       <c r="B188" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C188" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D188" t="s">
         <v>371</v>
@@ -8176,7 +8176,7 @@
         <v>162</v>
       </c>
       <c r="B189" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C189" t="s">
         <v>370</v>
@@ -8205,7 +8205,7 @@
         <v>147</v>
       </c>
       <c r="B190" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C190" t="s">
         <v>356</v>
@@ -8234,10 +8234,10 @@
         <v>158</v>
       </c>
       <c r="B191" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C191" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D191" t="s">
         <v>417</v>
@@ -8263,7 +8263,7 @@
         <v>151</v>
       </c>
       <c r="B192" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C192" t="s">
         <v>420</v>
@@ -8292,7 +8292,7 @@
         <v>161</v>
       </c>
       <c r="B193" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C193" t="s">
         <v>359</v>
@@ -8321,7 +8321,7 @@
         <v>315</v>
       </c>
       <c r="B194" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C194" t="s">
         <v>378</v>
@@ -8350,7 +8350,7 @@
         <v>318</v>
       </c>
       <c r="B195" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C195" t="s">
         <v>378</v>
@@ -8379,7 +8379,7 @@
         <v>150</v>
       </c>
       <c r="B196" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C196" t="s">
         <v>352</v>
@@ -8408,7 +8408,7 @@
         <v>154</v>
       </c>
       <c r="B197" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C197" t="s">
         <v>430</v>
@@ -8437,7 +8437,7 @@
         <v>152</v>
       </c>
       <c r="B198" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C198" t="s">
         <v>427</v>
@@ -8466,10 +8466,10 @@
         <v>170</v>
       </c>
       <c r="B199" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C199" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D199" t="s">
         <v>428</v>
@@ -8495,10 +8495,10 @@
         <v>319</v>
       </c>
       <c r="B200" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C200" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D200" t="s">
         <v>428</v>
@@ -8524,7 +8524,7 @@
         <v>172</v>
       </c>
       <c r="B201" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C201" t="s">
         <v>381</v>
@@ -8553,10 +8553,10 @@
         <v>176</v>
       </c>
       <c r="B202" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C202" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D202" t="s">
         <v>382</v>
@@ -8582,10 +8582,10 @@
         <v>159</v>
       </c>
       <c r="B203" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C203" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D203" t="s">
         <v>353</v>
@@ -8611,13 +8611,13 @@
         <v>145</v>
       </c>
       <c r="B204" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C204" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D204" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E204" t="s">
         <v>367</v>
@@ -8640,13 +8640,13 @@
         <v>141</v>
       </c>
       <c r="B205" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C205" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D205" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E205" t="s">
         <v>367</v>
@@ -8669,13 +8669,13 @@
         <v>348</v>
       </c>
       <c r="B206" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C206" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D206" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E206" t="s">
         <v>367</v>
@@ -8698,13 +8698,13 @@
         <v>163</v>
       </c>
       <c r="B207" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C207" t="s">
         <v>436</v>
       </c>
       <c r="D207" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E207" t="s">
         <v>367</v>
@@ -8727,13 +8727,13 @@
         <v>144</v>
       </c>
       <c r="B208" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C208" t="s">
         <v>396</v>
       </c>
       <c r="D208" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E208" t="s">
         <v>367</v>
@@ -8756,13 +8756,13 @@
         <v>157</v>
       </c>
       <c r="B209" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C209" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D209" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E209" t="s">
         <v>367</v>
@@ -8785,13 +8785,13 @@
         <v>160</v>
       </c>
       <c r="B210" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C210" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D210" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E210" t="s">
         <v>367</v>
@@ -8814,13 +8814,13 @@
         <v>317</v>
       </c>
       <c r="B211" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C211" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D211" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E211" t="s">
         <v>367</v>
@@ -8843,13 +8843,13 @@
         <v>165</v>
       </c>
       <c r="B212" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C212" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D212" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E212" t="s">
         <v>367</v>
@@ -8872,10 +8872,10 @@
         <v>316</v>
       </c>
       <c r="B213" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C213" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D213" t="s">
         <v>358</v>
@@ -8901,10 +8901,10 @@
         <v>312</v>
       </c>
       <c r="B214" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C214" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D214" t="s">
         <v>333</v>
@@ -8930,10 +8930,10 @@
         <v>173</v>
       </c>
       <c r="B215" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C215" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D215" t="s">
         <v>333</v>
@@ -8959,13 +8959,13 @@
         <v>174</v>
       </c>
       <c r="B216" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C216" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D216" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E216" t="s">
         <v>367</v>
@@ -8988,13 +8988,13 @@
         <v>166</v>
       </c>
       <c r="B217" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C217" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D217" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E217" t="s">
         <v>367</v>
@@ -9017,10 +9017,10 @@
         <v>168</v>
       </c>
       <c r="B218" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C218" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D218" t="s">
         <v>391</v>
@@ -9046,10 +9046,10 @@
         <v>188</v>
       </c>
       <c r="B219" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C219" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D219" t="s">
         <v>393</v>
@@ -9075,10 +9075,10 @@
         <v>194</v>
       </c>
       <c r="B220" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C220" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D220" t="s">
         <v>393</v>
@@ -9104,7 +9104,7 @@
         <v>183</v>
       </c>
       <c r="B221" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C221" t="s">
         <v>356</v>
@@ -9133,10 +9133,10 @@
         <v>169</v>
       </c>
       <c r="B222" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C222" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D222" t="s">
         <v>374</v>
@@ -9162,7 +9162,7 @@
         <v>189</v>
       </c>
       <c r="B223" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C223" t="s">
         <v>376</v>
@@ -9191,10 +9191,10 @@
         <v>167</v>
       </c>
       <c r="B224" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C224" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D224" t="s">
         <v>428</v>
@@ -9220,10 +9220,10 @@
         <v>187</v>
       </c>
       <c r="B225" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C225" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D225" t="s">
         <v>382</v>
@@ -9249,7 +9249,7 @@
         <v>191</v>
       </c>
       <c r="B226" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C226" t="s">
         <v>361</v>
@@ -9278,7 +9278,7 @@
         <v>340</v>
       </c>
       <c r="B227" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C227" t="s">
         <v>355</v>
@@ -9307,7 +9307,7 @@
         <v>190</v>
       </c>
       <c r="B228" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C228" t="s">
         <v>356</v>
@@ -9336,10 +9336,10 @@
         <v>164</v>
       </c>
       <c r="B229" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C229" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D229" t="s">
         <v>279</v>
@@ -9365,10 +9365,10 @@
         <v>171</v>
       </c>
       <c r="B230" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C230" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D230" t="s">
         <v>358</v>
@@ -9394,10 +9394,10 @@
         <v>175</v>
       </c>
       <c r="B231" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C231" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D231" t="s">
         <v>333</v>
@@ -9423,7 +9423,7 @@
         <v>192</v>
       </c>
       <c r="B232" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C232" t="s">
         <v>356</v>
@@ -9452,13 +9452,13 @@
         <v>196</v>
       </c>
       <c r="B233" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C233" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D233" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E233" t="s">
         <v>367</v>
@@ -9481,7 +9481,7 @@
         <v>184</v>
       </c>
       <c r="B234" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C234" t="s">
         <v>356</v>
@@ -9510,7 +9510,7 @@
         <v>198</v>
       </c>
       <c r="B235" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C235" t="s">
         <v>370</v>
@@ -9539,7 +9539,7 @@
         <v>205</v>
       </c>
       <c r="B236" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C236" t="s">
         <v>356</v>
@@ -9568,10 +9568,10 @@
         <v>185</v>
       </c>
       <c r="B237" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C237" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D237" t="s">
         <v>417</v>
@@ -9597,7 +9597,7 @@
         <v>199</v>
       </c>
       <c r="B238" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C238" t="s">
         <v>356</v>
@@ -9626,7 +9626,7 @@
         <v>195</v>
       </c>
       <c r="B239" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C239" t="s">
         <v>356</v>
@@ -9655,13 +9655,13 @@
         <v>178</v>
       </c>
       <c r="B240" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C240" t="s">
         <v>356</v>
       </c>
       <c r="D240" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E240" t="s">
         <v>367</v>
@@ -9684,13 +9684,13 @@
         <v>320</v>
       </c>
       <c r="B241" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C241" t="s">
         <v>356</v>
       </c>
       <c r="D241" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E241" t="s">
         <v>367</v>
@@ -9713,13 +9713,13 @@
         <v>193</v>
       </c>
       <c r="B242" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C242" t="s">
         <v>356</v>
       </c>
       <c r="D242" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E242" t="s">
         <v>367</v>
@@ -9742,13 +9742,13 @@
         <v>179</v>
       </c>
       <c r="B243" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C243" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D243" t="s">
-        <v>484</v>
+        <v>768</v>
       </c>
       <c r="E243" t="s">
         <v>367</v>
@@ -9771,7 +9771,7 @@
         <v>200</v>
       </c>
       <c r="B244" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C244" t="s">
         <v>356</v>
@@ -9800,10 +9800,10 @@
         <v>322</v>
       </c>
       <c r="B245" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C245" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D245" t="s">
         <v>358</v>
@@ -9829,7 +9829,7 @@
         <v>180</v>
       </c>
       <c r="B246" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C246" t="s">
         <v>356</v>
@@ -9858,13 +9858,13 @@
         <v>181</v>
       </c>
       <c r="B247" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C247" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D247" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E247" t="s">
         <v>367</v>
@@ -9887,7 +9887,7 @@
         <v>201</v>
       </c>
       <c r="B248" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C248" t="s">
         <v>359</v>
@@ -9916,7 +9916,7 @@
         <v>321</v>
       </c>
       <c r="B249" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C249" t="s">
         <v>356</v>
@@ -9945,7 +9945,7 @@
         <v>197</v>
       </c>
       <c r="B250" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C250" t="s">
         <v>356</v>
@@ -9974,7 +9974,7 @@
         <v>182</v>
       </c>
       <c r="B251" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C251" t="s">
         <v>356</v>
@@ -10003,7 +10003,7 @@
         <v>186</v>
       </c>
       <c r="B252" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C252" t="s">
         <v>356</v>
@@ -10032,10 +10032,10 @@
         <v>202</v>
       </c>
       <c r="B253" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C253" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D253" t="s">
         <v>350</v>
@@ -10061,13 +10061,13 @@
         <v>218</v>
       </c>
       <c r="B254" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C254" t="s">
         <v>356</v>
       </c>
       <c r="D254" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E254" t="s">
         <v>367</v>
@@ -10090,10 +10090,10 @@
         <v>221</v>
       </c>
       <c r="B255" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C255" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D255" t="s">
         <v>13</v>
@@ -10119,7 +10119,7 @@
         <v>220</v>
       </c>
       <c r="B256" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C256" t="s">
         <v>332</v>
@@ -10148,7 +10148,7 @@
         <v>209</v>
       </c>
       <c r="B257" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C257" t="s">
         <v>356</v>
@@ -10177,7 +10177,7 @@
         <v>207</v>
       </c>
       <c r="B258" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C258" t="s">
         <v>356</v>
@@ -10206,13 +10206,13 @@
         <v>203</v>
       </c>
       <c r="B259" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C259" t="s">
         <v>356</v>
       </c>
       <c r="D259" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E259" t="s">
         <v>367</v>
@@ -10235,7 +10235,7 @@
         <v>222</v>
       </c>
       <c r="B260" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C260" t="s">
         <v>356</v>
@@ -10264,7 +10264,7 @@
         <v>208</v>
       </c>
       <c r="B261" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C261" t="s">
         <v>356</v>
@@ -10293,7 +10293,7 @@
         <v>215</v>
       </c>
       <c r="B262" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C262" t="s">
         <v>356</v>
@@ -10322,10 +10322,10 @@
         <v>216</v>
       </c>
       <c r="B263" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C263" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D263" t="s">
         <v>377</v>
@@ -10351,7 +10351,7 @@
         <v>223</v>
       </c>
       <c r="B264" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C264" t="s">
         <v>356</v>
@@ -10380,7 +10380,7 @@
         <v>211</v>
       </c>
       <c r="B265" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C265" t="s">
         <v>356</v>
@@ -10409,7 +10409,7 @@
         <v>341</v>
       </c>
       <c r="B266" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C266" t="s">
         <v>356</v>
@@ -10438,7 +10438,7 @@
         <v>204</v>
       </c>
       <c r="B267" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C267" t="s">
         <v>356</v>
@@ -10467,7 +10467,7 @@
         <v>217</v>
       </c>
       <c r="B268" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C268" t="s">
         <v>356</v>
@@ -10496,7 +10496,7 @@
         <v>224</v>
       </c>
       <c r="B269" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C269" t="s">
         <v>356</v>
@@ -10525,7 +10525,7 @@
         <v>213</v>
       </c>
       <c r="B270" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C270" t="s">
         <v>356</v>
@@ -10554,7 +10554,7 @@
         <v>212</v>
       </c>
       <c r="B271" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C271" t="s">
         <v>356</v>
@@ -10580,10 +10580,10 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B272" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C272" t="s">
         <v>356</v>
@@ -10609,10 +10609,10 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B273" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C273" t="s">
         <v>356</v>
@@ -10641,7 +10641,7 @@
         <v>210</v>
       </c>
       <c r="B274" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C274" t="s">
         <v>356</v>
@@ -10670,7 +10670,7 @@
         <v>214</v>
       </c>
       <c r="B275" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C275" t="s">
         <v>356</v>
@@ -10696,16 +10696,16 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B276" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
       </c>
       <c r="D276" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E276" t="s">
         <v>367</v>
@@ -10725,10 +10725,10 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B277" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C277" t="s">
         <v>356</v>
@@ -10757,7 +10757,7 @@
         <v>342</v>
       </c>
       <c r="B278" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C278" t="s">
         <v>356</v>
@@ -10786,7 +10786,7 @@
         <v>219</v>
       </c>
       <c r="B279" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C279" t="s">
         <v>399</v>
@@ -10815,10 +10815,10 @@
         <v>343</v>
       </c>
       <c r="B280" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C280" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D280" t="s">
         <v>13</v>
@@ -10844,7 +10844,7 @@
         <v>230</v>
       </c>
       <c r="B281" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C281" t="s">
         <v>356</v>
@@ -10873,7 +10873,7 @@
         <v>235</v>
       </c>
       <c r="B282" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C282" t="s">
         <v>356</v>
@@ -10902,7 +10902,7 @@
         <v>234</v>
       </c>
       <c r="B283" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C283" t="s">
         <v>356</v>
@@ -10931,7 +10931,7 @@
         <v>225</v>
       </c>
       <c r="B284" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C284" t="s">
         <v>356</v>
@@ -10960,7 +10960,7 @@
         <v>226</v>
       </c>
       <c r="B285" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C285" t="s">
         <v>356</v>
@@ -10989,13 +10989,13 @@
         <v>231</v>
       </c>
       <c r="B286" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C286" t="s">
         <v>356</v>
       </c>
       <c r="D286" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E286" t="s">
         <v>367</v>
@@ -11018,13 +11018,13 @@
         <v>233</v>
       </c>
       <c r="B287" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C287" t="s">
         <v>356</v>
       </c>
       <c r="D287" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E287" t="s">
         <v>367</v>
@@ -11047,13 +11047,13 @@
         <v>227</v>
       </c>
       <c r="B288" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C288" t="s">
         <v>356</v>
       </c>
       <c r="D288" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E288" t="s">
         <v>367</v>
@@ -11076,7 +11076,7 @@
         <v>232</v>
       </c>
       <c r="B289" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C289" t="s">
         <v>356</v>
@@ -11105,7 +11105,7 @@
         <v>323</v>
       </c>
       <c r="B290" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C290" t="s">
         <v>356</v>
@@ -11134,7 +11134,7 @@
         <v>243</v>
       </c>
       <c r="B291" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C291" t="s">
         <v>356</v>
@@ -11163,7 +11163,7 @@
         <v>238</v>
       </c>
       <c r="B292" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C292" t="s">
         <v>356</v>
@@ -11192,7 +11192,7 @@
         <v>228</v>
       </c>
       <c r="B293" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C293" t="s">
         <v>356</v>
@@ -11221,7 +11221,7 @@
         <v>239</v>
       </c>
       <c r="B294" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C294" t="s">
         <v>356</v>
@@ -11250,7 +11250,7 @@
         <v>236</v>
       </c>
       <c r="B295" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C295" t="s">
         <v>356</v>
@@ -11279,7 +11279,7 @@
         <v>229</v>
       </c>
       <c r="B296" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C296" t="s">
         <v>356</v>
@@ -11308,13 +11308,13 @@
         <v>244</v>
       </c>
       <c r="B297" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C297" t="s">
         <v>356</v>
       </c>
       <c r="D297" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E297" t="s">
         <v>367</v>
@@ -11337,13 +11337,13 @@
         <v>249</v>
       </c>
       <c r="B298" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C298" t="s">
         <v>356</v>
       </c>
       <c r="D298" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E298" t="s">
         <v>367</v>
@@ -11366,7 +11366,7 @@
         <v>251</v>
       </c>
       <c r="B299" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C299" t="s">
         <v>356</v>
@@ -11395,7 +11395,7 @@
         <v>241</v>
       </c>
       <c r="B300" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C300" t="s">
         <v>356</v>
@@ -11424,13 +11424,13 @@
         <v>331</v>
       </c>
       <c r="B301" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C301" t="s">
         <v>356</v>
       </c>
       <c r="D301" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E301" t="s">
         <v>367</v>
@@ -11453,13 +11453,13 @@
         <v>255</v>
       </c>
       <c r="B302" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C302" t="s">
         <v>356</v>
       </c>
       <c r="D302" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E302" t="s">
         <v>367</v>
@@ -11482,7 +11482,7 @@
         <v>245</v>
       </c>
       <c r="B303" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C303" t="s">
         <v>356</v>
@@ -11511,7 +11511,7 @@
         <v>240</v>
       </c>
       <c r="B304" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C304" t="s">
         <v>356</v>
@@ -11569,7 +11569,7 @@
         <v>250</v>
       </c>
       <c r="B306" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C306" t="s">
         <v>356</v>
@@ -11598,7 +11598,7 @@
         <v>242</v>
       </c>
       <c r="B307" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C307" t="s">
         <v>356</v>
@@ -11627,7 +11627,7 @@
         <v>252</v>
       </c>
       <c r="B308" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C308" t="s">
         <v>356</v>
@@ -11656,7 +11656,7 @@
         <v>253</v>
       </c>
       <c r="B309" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C309" t="s">
         <v>356</v>
@@ -11685,13 +11685,13 @@
         <v>246</v>
       </c>
       <c r="B310" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C310" t="s">
         <v>356</v>
       </c>
       <c r="D310" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E310" t="s">
         <v>367</v>
@@ -11714,7 +11714,7 @@
         <v>247</v>
       </c>
       <c r="B311" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C311" t="s">
         <v>356</v>
@@ -11743,7 +11743,7 @@
         <v>254</v>
       </c>
       <c r="B312" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C312" t="s">
         <v>356</v>
@@ -11772,13 +11772,13 @@
         <v>237</v>
       </c>
       <c r="B313" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C313" t="s">
         <v>356</v>
       </c>
       <c r="D313" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E313" t="s">
         <v>367</v>
@@ -11801,13 +11801,13 @@
         <v>328</v>
       </c>
       <c r="B314" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C314" t="s">
         <v>356</v>
       </c>
       <c r="D314" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E314" t="s">
         <v>367</v>
@@ -11830,13 +11830,13 @@
         <v>327</v>
       </c>
       <c r="B315" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C315" t="s">
         <v>356</v>
       </c>
       <c r="D315" t="s">
-        <v>484</v>
+        <v>768</v>
       </c>
       <c r="E315" t="s">
         <v>367</v>
@@ -11859,7 +11859,7 @@
         <v>261</v>
       </c>
       <c r="B316" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C316" t="s">
         <v>356</v>
@@ -11888,7 +11888,7 @@
         <v>256</v>
       </c>
       <c r="B317" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C317" t="s">
         <v>356</v>
@@ -11917,7 +11917,7 @@
         <v>259</v>
       </c>
       <c r="B318" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C318" t="s">
         <v>356</v>
@@ -11946,7 +11946,7 @@
         <v>326</v>
       </c>
       <c r="B319" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C319" t="s">
         <v>356</v>
@@ -11975,10 +11975,10 @@
         <v>257</v>
       </c>
       <c r="B320" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C320" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D320" t="s">
         <v>366</v>
@@ -12004,10 +12004,10 @@
         <v>260</v>
       </c>
       <c r="B321" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C321" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D321" t="s">
         <v>377</v>
@@ -12033,10 +12033,10 @@
         <v>263</v>
       </c>
       <c r="B322" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C322" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D322" t="s">
         <v>366</v>
@@ -12062,13 +12062,13 @@
         <v>329</v>
       </c>
       <c r="B323" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C323" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D323" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E323" t="s">
         <v>367</v>
@@ -12091,13 +12091,13 @@
         <v>330</v>
       </c>
       <c r="B324" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C324" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D324" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E324" t="s">
         <v>367</v>
@@ -12120,13 +12120,13 @@
         <v>258</v>
       </c>
       <c r="B325" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C325" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D325" t="s">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="E325" t="s">
         <v>367</v>
@@ -12149,10 +12149,10 @@
         <v>265</v>
       </c>
       <c r="B326" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C326" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D326" t="s">
         <v>411</v>
@@ -12178,10 +12178,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C327" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D327" t="s">
         <v>428</v>
@@ -12207,10 +12207,10 @@
         <v>324</v>
       </c>
       <c r="B328" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C328" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D328" t="s">
         <v>379</v>
@@ -12236,10 +12236,10 @@
         <v>262</v>
       </c>
       <c r="B329" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C329" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D329" t="s">
         <v>366</v>
@@ -12265,13 +12265,13 @@
         <v>266</v>
       </c>
       <c r="B330" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C330" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D330" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="E330" t="s">
         <v>367</v>
@@ -12294,13 +12294,13 @@
         <v>264</v>
       </c>
       <c r="B331" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C331" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D331" t="s">
-        <v>484</v>
+        <v>768</v>
       </c>
       <c r="E331" t="s">
         <v>367</v>
